--- a/data/trans_camb/P5_4-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P5_4-Urba-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,65</t>
+          <t>-1,55</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>-0,59</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,47; 8,59</t>
+          <t>-11,55; 12,03</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,02; 7,09</t>
+          <t>-11,24; 8,13</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,37; 5,83</t>
+          <t>-8,06; 7,22</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,06%</t>
+          <t>1,65%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,61%</t>
+          <t>-3,63%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,39%</t>
+          <t>-1,5%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-19,57; 23,01</t>
+          <t>-27,65; 40,17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-18,0; 19,4</t>
+          <t>-23,18; 21,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-12,51; 16,36</t>
+          <t>-18,87; 20,21</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,99</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,1</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,59</t>
+          <t>1,03</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,95; 13,94</t>
+          <t>-11,52; 13,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,73; 11,31</t>
+          <t>-10,27; 10,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 9,41</t>
+          <t>-6,91; 8,58</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,96%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,08%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,76%</t>
+          <t>2,71%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-14,61; 35,13</t>
+          <t>-23,67; 37,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-15,44; 37,7</t>
+          <t>-27,28; 37,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-9,86; 27,32</t>
+          <t>-16,65; 25,07</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,67</t>
+          <t>-3,69</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,21</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,51</t>
+          <t>-2,11</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-23,12; 20,76</t>
+          <t>-36,35; 33,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-18,19; 14,76</t>
+          <t>-22,64; 20,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-15,74; 13,48</t>
+          <t>-22,61; 16,07</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-3,84%</t>
+          <t>-8,22%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-3,33%</t>
+          <t>-1,2%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-3,76%</t>
+          <t>-5,52%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-42,33; 60,14</t>
+          <t>-60,75; 105,46</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-42,83; 56,29</t>
+          <t>-53,87; 117,98</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-32,35; 41,67</t>
+          <t>-47,78; 55,32</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>-0,09</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,15; 8,39</t>
+          <t>-8,16; 9,08</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 5,45</t>
+          <t>-7,08; 6,26</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 4,87</t>
+          <t>-5,07; 5,49</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2,91%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>1,01%</t>
+          <t>-1,52%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>1,99%</t>
+          <t>-0,24%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,24 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-11,87; 21,6</t>
+          <t>-18,5; 26,22</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-12,38; 15,84</t>
+          <t>-16,9; 18,26</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-8,87; 12,67</t>
+          <t>-12,34; 15,27</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P5_4-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P5_4-Urba-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,57</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-1,55</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-0,59</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>2.133481056080639</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.5426925820082307</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.6768607051459097</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-11,55; 12,03</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-11,24; 8,13</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-8,06; 7,22</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-9.898684158952834</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-10.27447295376628</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-7.138037619952704</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>1,65%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-3,63%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-1,5%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>14.34287890081355</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>9.244929461261602</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>8.112073378883832</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-27,65; 40,17</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-23,18; 21,55</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-18,87; 20,21</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>0.06124042406577192</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>-0.01269463605392439</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.01729441326889822</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>1,5</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,76</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,03</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.2408549495713636</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.2138406217936104</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.1660129553961036</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-11,52; 13,93</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-10,27; 10,89</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-6,91; 8,58</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.4808626816166631</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.2420951846373177</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.2387615002402736</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>3,49%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>2,25%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>2,71%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>-1.956133206116439</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>1.668195131966976</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.05754504916020697</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-23,67; 37,88</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-27,28; 37,35</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-16,65; 25,07</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-15.04338735405292</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-9.697903181991853</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-8.08313406178657</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-3,69</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-0,37</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-2,11</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>10.44372407813618</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>11.66333810802709</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>7.801648146333321</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-36,35; 33,16</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-22,64; 20,87</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-22,61; 16,07</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>-0.04543464655274621</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>0.04921770047906746</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.001508128446378074</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-8,22%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-1,2%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-5,52%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.304808041686515</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.2555467096237548</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.1953879352799504</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-60,75; 105,46</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-53,87; 117,98</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-47,78; 55,32</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.2888073083602872</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.4046460729799063</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.2322335370741041</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,93 +775,209 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>0,48</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-0,58</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-0,09</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-2.014573620862614</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-3.078344151441365</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-3.049988739658194</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-8,16; 9,08</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-7,08; 6,26</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-5,07; 5,49</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-36.46927089579654</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-23.89672966556618</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-22.89741192047859</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>1,22%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>-1,52%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-0,24%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>33.93834946533564</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>18.90534681787775</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>15.52870670249573</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-18,5; 26,22</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-16,9; 18,26</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-12,34; 15,27</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>-0.0448387664234377</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>-0.09831833708961819</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.07982238309062908</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.5936756897489026</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.5741880245543332</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.4884684501808691</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>1.156944326493789</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>1.03162775857302</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.5245664868140593</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>0.02118777185836085</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.05582881396052342</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.04232168967025496</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-8.298807475591998</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-6.501982697954569</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-4.897523625659966</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>8.865587173289395</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>6.950887427045055</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>5.696105978784487</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>0.0005393229637563116</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>0.001465725388542204</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0.001095107483185713</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.1928735474156583</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.1572155343231872</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.1191783966460686</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.2474598447092087</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.2038706982600126</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.1591151540550685</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -936,11 +985,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
